--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Ictus (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Ictus (INC).xlsx
@@ -466,7 +466,7 @@
         <v>1.540122399878162</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.03869426598209472</v>
+        <v>-0.0386942659820947</v>
       </c>
       <c r="C3" t="n">
         <v>6.376475789314945</v>
@@ -477,7 +477,7 @@
         <v>2.404387408742863</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0189645488196469</v>
+        <v>-0.01896454881964689</v>
       </c>
       <c r="C4" t="n">
         <v>9.795854883226855</v>
@@ -488,7 +488,7 @@
         <v>1.834868836390597</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02366365359836319</v>
+        <v>-0.02366365359836317</v>
       </c>
       <c r="C5" t="n">
         <v>7.810134270671529</v>
@@ -499,7 +499,7 @@
         <v>3.553289266787414</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01382506451108916</v>
+        <v>0.01382506451108917</v>
       </c>
       <c r="C6" t="n">
         <v>14.70171599787725</v>
@@ -521,7 +521,7 @@
         <v>7.456851368733357</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05906532940453048</v>
+        <v>0.05906532940453046</v>
       </c>
       <c r="C8" t="n">
         <v>29.5261390990664</v>
@@ -532,7 +532,7 @@
         <v>3.300927511471996</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.425661898264707e-05</v>
+        <v>-1.42566189826332e-05</v>
       </c>
       <c r="C9" t="n">
         <v>13.54221628966803</v>
@@ -543,7 +543,7 @@
         <v>7.446741781400773</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05709461318908719</v>
+        <v>0.05709461318908717</v>
       </c>
       <c r="C10" t="n">
         <v>29.5789626384483</v>
@@ -565,7 +565,7 @@
         <v>4.449829369516547</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0327753567117534</v>
+        <v>0.03277535671175341</v>
       </c>
       <c r="C12" t="n">
         <v>18.44807740431842</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.129584964363926</v>
+        <v>7.129584964363925</v>
       </c>
       <c r="B13" t="n">
         <v>0.06623482954044269</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.32792381136141</v>
+        <v>6.327923811361409</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05163783606254119</v>
+        <v>0.05163783606254118</v>
       </c>
       <c r="C14" t="n">
         <v>25.50187433457385</v>
@@ -598,7 +598,7 @@
         <v>2.129615272903032</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.008633041214631668</v>
+        <v>-0.008633041214631647</v>
       </c>
       <c r="C15" t="n">
         <v>9.243792752028114</v>
@@ -609,7 +609,7 @@
         <v>3.448300729728213</v>
       </c>
       <c r="B16" t="n">
-        <v>0.007501049572883119</v>
+        <v>0.007501049572883126</v>
       </c>
       <c r="C16" t="n">
         <v>14.25904553034632</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.509375945802064</v>
+        <v>2.509375945802065</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01264053388144086</v>
+        <v>-0.01264053388144085</v>
       </c>
       <c r="C18" t="n">
         <v>10.23852535075778</v>
@@ -653,7 +653,7 @@
         <v>3.848035703299849</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02885567689482068</v>
+        <v>0.02885567689482069</v>
       </c>
       <c r="C20" t="n">
         <v>16.13537447923383</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.888891744708532</v>
+        <v>2.888891744708531</v>
       </c>
       <c r="B21" t="n">
-        <v>0.004772661009610116</v>
+        <v>0.004772661009610133</v>
       </c>
       <c r="C21" t="n">
         <v>12.22050137840909</v>
@@ -675,7 +675,7 @@
         <v>7.54162073112739</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06144791191184993</v>
+        <v>0.06144791191184992</v>
       </c>
       <c r="C22" t="n">
         <v>30.07445664536112</v>
@@ -686,10 +686,10 @@
         <v>2.486965565277652</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01153029485364617</v>
+        <v>0.01153029485364619</v>
       </c>
       <c r="C23" t="n">
-        <v>10.84596292776827</v>
+        <v>10.84596292776826</v>
       </c>
     </row>
     <row r="24">
@@ -697,7 +697,7 @@
         <v>3.395806461198613</v>
       </c>
       <c r="B24" t="n">
-        <v>0.004339042103780097</v>
+        <v>0.004339042103780111</v>
       </c>
       <c r="C24" t="n">
         <v>14.03771029658085</v>
@@ -708,7 +708,7 @@
         <v>3.206048561745379</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.004367555341745391</v>
+        <v>-0.004367555341745377</v>
       </c>
       <c r="C25" t="n">
         <v>13.0467222827552</v>
@@ -719,7 +719,7 @@
         <v>3.098868818826934</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01742069088602219</v>
+        <v>0.0174206908860222</v>
       </c>
       <c r="C26" t="n">
         <v>13.10584231347095</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.529319937935562</v>
+        <v>7.529319937935561</v>
       </c>
       <c r="B27" t="n">
         <v>0.08758945686238026</v>
@@ -752,7 +752,7 @@
         <v>2.634338783533869</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01904560104551194</v>
+        <v>0.01904560104551196</v>
       </c>
       <c r="C29" t="n">
         <v>11.56279216844656</v>
@@ -774,7 +774,7 @@
         <v>6.338033398693995</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05360855227798448</v>
+        <v>0.05360855227798447</v>
       </c>
       <c r="C31" t="n">
         <v>25.44905079519195</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.634971041065673</v>
+        <v>6.634971041065672</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04052690349574239</v>
+        <v>0.04052690349574237</v>
       </c>
       <c r="C32" t="n">
         <v>26.38091877830185</v>
@@ -796,7 +796,7 @@
         <v>6.275429542831809</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04847582859343817</v>
+        <v>0.04847582859343816</v>
       </c>
       <c r="C33" t="n">
         <v>25.28053910080838</v>
@@ -818,7 +818,7 @@
         <v>3.595673947984431</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01501635576474888</v>
+        <v>0.01501635576474889</v>
       </c>
       <c r="C35" t="n">
         <v>14.97587477102461</v>
@@ -840,7 +840,7 @@
         <v>3.14125350002395</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01861198213968192</v>
+        <v>0.01861198213968193</v>
       </c>
       <c r="C37" t="n">
         <v>13.38000108661832</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.649696856302366</v>
+        <v>4.649696856302365</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04345267037272219</v>
+        <v>0.0434526703727222</v>
       </c>
       <c r="C39" t="n">
         <v>19.38624187876217</v>
@@ -873,7 +873,7 @@
         <v>2.699133845255298</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.003933936435915372</v>
+        <v>-0.003933936435915358</v>
       </c>
       <c r="C40" t="n">
         <v>11.22951336458344</v>
@@ -895,7 +895,7 @@
         <v>5.768514826341728</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04890944749926819</v>
+        <v>0.04890944749926818</v>
       </c>
       <c r="C42" t="n">
         <v>23.46333018263662</v>
@@ -950,7 +950,7 @@
         <v>7.846476754972409</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07844924051102475</v>
+        <v>0.07844924051102473</v>
       </c>
       <c r="C47" t="n">
         <v>31.45529158733581</v>
@@ -972,7 +972,7 @@
         <v>2.394277821410279</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.02093526503509019</v>
+        <v>-0.02093526503509018</v>
       </c>
       <c r="C49" t="n">
         <v>9.848678422608753</v>
@@ -983,7 +983,7 @@
         <v>3.036264962964749</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01228796720147588</v>
+        <v>0.0122879672014759</v>
       </c>
       <c r="C50" t="n">
         <v>12.93733061908739</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.645110936937363</v>
+        <v>1.645110936937364</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.03237025104388869</v>
+        <v>-0.03237025104388866</v>
       </c>
       <c r="C51" t="n">
         <v>6.819146256845874</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.833309888063157</v>
+        <v>5.833309888063156</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02592991001784088</v>
+        <v>0.02592991001784087</v>
       </c>
       <c r="C52" t="n">
         <v>23.1300513787735</v>
@@ -1016,7 +1016,7 @@
         <v>4.807179661891167</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05293869278003125</v>
+        <v>0.05293869278003126</v>
       </c>
       <c r="C53" t="n">
         <v>20.05024758005857</v>
@@ -1027,7 +1027,7 @@
         <v>2.234603809962233</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.002309026276425631</v>
+        <v>-0.00230902627642561</v>
       </c>
       <c r="C54" t="n">
         <v>9.686463219559043</v>
@@ -1038,7 +1038,7 @@
         <v>2.941386013238132</v>
       </c>
       <c r="B55" t="n">
-        <v>0.007934668478713134</v>
+        <v>0.007934668478713148</v>
       </c>
       <c r="C55" t="n">
         <v>12.44183661217456</v>
@@ -1060,7 +1060,7 @@
         <v>6.687465309595273</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04368891096484541</v>
+        <v>0.0436889109648454</v>
       </c>
       <c r="C57" t="n">
         <v>26.60225401206731</v>
@@ -1071,7 +1071,7 @@
         <v>3.193747768553551</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02177398960878494</v>
+        <v>0.02177398960878495</v>
       </c>
       <c r="C58" t="n">
         <v>13.60133632038378</v>
@@ -1093,7 +1093,7 @@
         <v>2.32948275968885</v>
       </c>
       <c r="B60" t="n">
-        <v>0.002044272446337116</v>
+        <v>0.002044272446337137</v>
       </c>
       <c r="C60" t="n">
         <v>10.18195722647187</v>
@@ -1137,7 +1137,7 @@
         <v>2.381977028218451</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005206279915440135</v>
+        <v>0.005206279915440159</v>
       </c>
       <c r="C64" t="n">
         <v>10.40329246023733</v>
@@ -1148,7 +1148,7 @@
         <v>6.592586359868656</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03933561224208267</v>
+        <v>0.03933561224208264</v>
       </c>
       <c r="C65" t="n">
         <v>26.10676000515448</v>
@@ -1170,7 +1170,7 @@
         <v>5.16672116012503</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04498976768233546</v>
+        <v>0.04498976768233547</v>
       </c>
       <c r="C67" t="n">
         <v>21.15062725755204</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.689024257922714</v>
+        <v>2.689024257922713</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.005904652651358665</v>
+        <v>-0.005904652651358651</v>
       </c>
       <c r="C68" t="n">
         <v>11.28233690396534</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.688993949383607</v>
+        <v>7.688993949383606</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0689632181037157</v>
+        <v>0.06896321810371568</v>
       </c>
       <c r="C69" t="n">
         <v>30.79128588603941</v>
@@ -1203,7 +1203,7 @@
         <v>2.751628113784899</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.0007719289668123505</v>
+        <v>-0.0007719289668123366</v>
       </c>
       <c r="C70" t="n">
         <v>11.4508485983489</v>
